--- a/biology/Botanique/Chancre_bactérien_du_marronnier/Chancre_bactérien_du_marronnier.xlsx
+++ b/biology/Botanique/Chancre_bactérien_du_marronnier/Chancre_bactérien_du_marronnier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chancre_bact%C3%A9rien_du_marronnier</t>
+          <t>Chancre_bactérien_du_marronnier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le chancre bactérien du marronnier, ou  dépérissement bactérien du marronnier, est une maladie émergente, probablement multifactorielle, présentant les caractères d'une épidémie. Elle décime localement les marronniers de plusieurs espèces (blancs, rouges..) dans certains parcs et jardins, alignements ou zones urbaines au centre de l’Europe de l’Ouest. Elle a connu une forte extension dans les années 2005- 2006.
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chancre_bact%C3%A9rien_du_marronnier</t>
+          <t>Chancre_bactérien_du_marronnier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,10 +531,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chancre bactérien du marronnier est une maladie émergente aux causes probablement multiples. 
-On a d’abord cru qu’une succession d’hivers très doux, d’étés chauds et de printemps humides et d’autres facteurs (pollution, contamination par la taille, etc.) avaient favorisé les infections de marronniers par des champignons pathogène du complexe Phytophthora responsables de chancres observés depuis la fin des années 1990. Mais en 2005, alors que la Commission (anglaise) des forêts (Forestry commission) estimait que 35 000 à 50 000 arbres étaient malades et plusieurs milliers déjà morts, l’analyse d’échantillons de tissus attaqués (venant du sud de l'Angleterre) a systématiquement mis en évidence un complexe de bactéries  Pseudomonas syringae.  En 2005, Dans le Hampshire, sur 230 marronniers étudiés, 50 % environ présentaient des symptômes de la maladie[1]. Trois espèces au moins sont touchées, et là où de jeunes marronniers ont été plantés à la place de ceux qui sont morts, ils ont présenté des traces de l'infection en quelques années.
+On a d’abord cru qu’une succession d’hivers très doux, d’étés chauds et de printemps humides et d’autres facteurs (pollution, contamination par la taille, etc.) avaient favorisé les infections de marronniers par des champignons pathogène du complexe Phytophthora responsables de chancres observés depuis la fin des années 1990. Mais en 2005, alors que la Commission (anglaise) des forêts (Forestry commission) estimait que 35 000 à 50 000 arbres étaient malades et plusieurs milliers déjà morts, l’analyse d’échantillons de tissus attaqués (venant du sud de l'Angleterre) a systématiquement mis en évidence un complexe de bactéries  Pseudomonas syringae.  En 2005, Dans le Hampshire, sur 230 marronniers étudiés, 50 % environ présentaient des symptômes de la maladie. Trois espèces au moins sont touchées, et là où de jeunes marronniers ont été plantés à la place de ceux qui sont morts, ils ont présenté des traces de l'infection en quelques années.
 Aux Pays-Bas en 2005, ces bactéries ont également été isolées dans les exsudats de chancres des arbres malades étudiés. De même à Bruxelles et dans toute la Belgique centrale en 2006 (mais pas dans le Sud-Est du pays où les marronniers semblent curieusement épargnés par la maladie). Partout, la plupart des arbres qui meurent sont âgés de 10 à 30 ans.
 Un groupe néerlandais de travail (Aesculaap) a été créé quand le dépérissement des marronniers est apparu être un problème national aux Pays-Bas. Un premier programme nommé « Red de kastanje voor Nederland » (traduction :  « Sauver les marronniers de Hollande ») a travaillé avec plusieurs villes pour cartographier la progression du phénomène, avant de lancer en 2005 une enquête nationale, pour notamment identifier les pathogènes potentiellement en cause et juger d’une éventuelle coresponsabilité de la mineuse du marronnier, invasif récent dans les zones touchées par le chancre. On étudie les processus biochimiques de l’infection, et à Houten, des lésions ont été expérimentalement traitées avec différents produits pour tester leur capacité à traiter la maladie. Des échantillons de bois, d'écorce, de fleurs, de racines et de sol sont rassemblés étudiés, ainsi que les défenses naturelles du marronnier pour produire d’éventuels moyens de lutte et des conseils pratiques. Les chercheurs vérifient aussi que les chancres bactériens trouvés sur d’autres espèces d’arbre ne sont pas dus à des infections par P. syringae. 
 Alors que le nombre de régions touchées augmentait dans le pays et en Europe, un nouveau programme « Behoud de kastanje » (« Préserver le marronnier ») a été lancé en 2006, associant plus de la moitié des villes du pays (carte). Les chercheurs y ont confirmé que Pseudomonas Syringae était bien responsable de cette maladie. Il étudie les défenses naturelles du marronnier et les facteurs de stress qui pourraient favoriser la maladie et continue à chercher des solutions..
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chancre_bact%C3%A9rien_du_marronnier</t>
+          <t>Chancre_bactérien_du_marronnier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,7 +571,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les symptômes sont nombreux et atypiques s'ils sont pris séparément : débourrement ralenti puis bloqué, suivi d'un dessèchement des feuilles et des écorces ou des fleurs, à différentes hauteurs ou à des stades divers de végétation. L'infection entraine alors un retard ou arrêt de la croissance. Une seule branche charpentière peut être touchée ou le tronc ou tout l'arbre (et peut-être les racines, comme c'est le cas pour d'autres arbres).
 La dessiccation est accompagnée ou précédée de nécroses chancreuses d'où s'écoule un exsudat brunâtre à rougeâtre. Les chancres d'où coule un exsudat foncé sont un des symptômes les plus caractéristiques. Ils s'accompagnent souvent de longues fentes verticales (chez le marronnier) et/ou d'un décollement de l'écorce chez les arbres. Sous l'écorce des taches rougeâtres à brunâtres se développent. Parfois des coulées importantes d'exsudat colorent l'écorce, marquant un écoulement le long du tronc, avec une diffusion horizontale sur les micro-algues et micro-lichens épiphytes par exemple. Divers champignons opportunistes ou insectes saproxylophages peuvent alors coloniser le bois malade ou mort. 
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chancre_bact%C3%A9rien_du_marronnier</t>
+          <t>Chancre_bactérien_du_marronnier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Modalités d'infection/contagion</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On sait que le bacille est présent dans le sol (sur la graine ?). Chez les annuelles, on pense qu'il colonise d'abord l'extérieur de la plante dans laquelle il pénètre par des blessures ou par les stomates des feuilles. 
 Le bacille entame alors une seconde phase de croissance dans les espaces intercellulaires de la feuille, de la peau du fruit, ou des tissus sous-corticaux (sous-écorce). Des infections racinaires sont citées pour d'autres arbres que le marronnier, et il semble que de nombreux marronniers malades ont des racines contraintes ou qui l'ont été en pépinière et au moment de la plantation. 
@@ -606,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chancre_bact%C3%A9rien_du_marronnier</t>
+          <t>Chancre_bactérien_du_marronnier</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,11 +642,13 @@
           <t>Moyens de lutte</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pseudomonas sont facilement multirésistantes aux antiseptiques et à nombre d'antibiotiques. . P. Syringae  résiste à de nombreux inhibiteurs bactériens, continuant même à croître et à se reproduire dans certaines solutions antiseptiques.
 Cette résistance est-elle naturelle ou acquise ? On l’ignore, mais cette bactérie commune dans l’eau est fréquemment en contact avec des résidus de désinfectants, biocides et antibiotiques, qui peuvent avoir généré des adaptations sélectives multiples. La résistance provient de phénomènes d’imperméabilisation de la membrane externe à ces molécules (modification des porines) et/ou à la production d'enzymes inactivantes.
-Les antibiotiques ne sont pas donc recommandés (quand ils ne sont pas interdits), et de toute façon ils sont a priori inutiles chez les arbres une fois que l'infection est avancée. Leur usage risque de rapidement provoquer l’apparition de souches résistantes. Divers traitements sont testés, dont l'application de bouillies cupriques (à base de cuivre) au moment de la chute des feuilles, mais au moins certaines souches de Pseudomonas sont résistantes au cuivre grâce à une protéine qui piège et rend inerte le cuivre[2].
+Les antibiotiques ne sont pas donc recommandés (quand ils ne sont pas interdits), et de toute façon ils sont a priori inutiles chez les arbres une fois que l'infection est avancée. Leur usage risque de rapidement provoquer l’apparition de souches résistantes. Divers traitements sont testés, dont l'application de bouillies cupriques (à base de cuivre) au moment de la chute des feuilles, mais au moins certaines souches de Pseudomonas sont résistantes au cuivre grâce à une protéine qui piège et rend inerte le cuivre.
 Il semble que P. Syringae soit parfois (très souvent ?) opportuniste, c’est-à-dire qu'il infecte des plantes déjà affaiblies par la pollution, un stress hydrique, de mauvaises conditions de plantation, une autre maladie, des blessures, un système racinaire contraint ou asphyxié. On manque encore de données pour le confirmer ou l'infirmer, mais restaurer un environnement (eau, air, sol) de qualité est préventivement utile, de même que planter dans des sols profonds correspondant aux besoins de la plante, avec une capacité en eau suffisante. Rappelons que le marronnier est à l'origine un arbre forestier qui apprécie un sol riche en humus et une place suffisante pour son développement racinaire.
 </t>
         </is>
@@ -640,7 +660,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chancre_bact%C3%A9rien_du_marronnier</t>
+          <t>Chancre_bactérien_du_marronnier</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -658,7 +678,9 @@
           <t>Précautions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette bactérie est réputée avoir besoin de cellules vivantes pour se reproduire en grande quantité, sans pouvoir survivre dans le bois mort. Brûler celui-ci ne servirait donc à rien. Par contre le transport de bûches, branches, feuilles mortes ou troncs malades fraîchement coupés pourrait contribuer à diffuser la bactérie, qui semble aussi, selon la littérature, capable de se diffuser par le vent et la pluie. Mieux vaut composter les bois et feuilles sur place, éventuellement sous une couche de terre de 10 cm pour les feuilles et les écorces, sous réserve d'informations nouvelles.
 L'Agence de recherche de la commission anglaise des forêts recommande de ne pas replanter de marronniers là où d'autres sont morts peu avant, l'expérience montrant qu'ils tombent malades en quelques années.
